--- a/Results/Classification/Augmented Data/Full VPOP Classification/By Diagnosis/Control 1 (35, 1, 31, 14, 19)/MDD 5 (0, 30, 46, 17, 23)/NODE_11nodes_Uniform0.05Virtual_Control(35, 1, 31, 14, 19)_MDD(0, 30, 46, 17, 23)_100perPatient_batchsize100_200maxITER_StandardizeAll_smoothing0_dropout0.0.xlsx
+++ b/Results/Classification/Augmented Data/Full VPOP Classification/By Diagnosis/Control 1 (35, 1, 31, 14, 19)/MDD 5 (0, 30, 46, 17, 23)/NODE_11nodes_Uniform0.05Virtual_Control(35, 1, 31, 14, 19)_MDD(0, 30, 46, 17, 23)_100perPatient_batchsize100_200maxITER_StandardizeAll_smoothing0_dropout0.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Iterations</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Success %</t>
+  </si>
+  <si>
+    <t>Label</t>
   </si>
   <si>
     <t>Control 35</t>
@@ -419,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,10 +447,13 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -461,10 +467,13 @@
       <c r="E2">
         <v>0.5136591850229391</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -475,10 +484,13 @@
       <c r="E3">
         <v>0.6869592972078181</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -489,10 +501,13 @@
       <c r="E4">
         <v>0.2667922881542306</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -503,10 +518,13 @@
       <c r="E5">
         <v>0.6257974382786995</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -517,10 +535,13 @@
       <c r="E6">
         <v>0.3337316852311895</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -531,10 +552,13 @@
       <c r="E7">
         <v>0.2095702488320511</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -545,10 +569,13 @@
       <c r="E8">
         <v>0.6240412696262325</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -559,10 +586,13 @@
       <c r="E9">
         <v>0.2751162268805888</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -573,10 +603,13 @@
       <c r="E10">
         <v>0.3089581956952122</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -593,10 +626,13 @@
       <c r="G11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>200</v>
@@ -610,10 +646,13 @@
       <c r="E12">
         <v>0.5136591850229391</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -624,10 +663,13 @@
       <c r="E13">
         <v>0.6869592972078181</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -638,10 +680,13 @@
       <c r="E14">
         <v>0.2667922881542306</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -652,10 +697,13 @@
       <c r="E15">
         <v>0.6257974382786995</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -666,10 +714,13 @@
       <c r="E16">
         <v>0.3337316852311895</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -680,10 +731,13 @@
       <c r="E17">
         <v>0.2095702488320511</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -694,10 +748,13 @@
       <c r="E18">
         <v>0.6240412696262325</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -708,10 +765,13 @@
       <c r="E19">
         <v>0.2751162268805888</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -722,10 +782,13 @@
       <c r="E20">
         <v>0.3089581956952122</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -741,6 +804,9 @@
       </c>
       <c r="G21">
         <v>0.5</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
